--- a/project/白维扬/测试用例2.xlsx
+++ b/project/白维扬/测试用例2.xlsx
@@ -426,10 +426,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -462,22 +462,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -485,40 +469,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,7 +486,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,22 +494,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,8 +524,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,6 +561,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,37 +613,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,139 +781,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,11 +855,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,17 +900,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,15 +935,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -948,124 +948,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1074,16 +1074,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1433,8 +1433,8 @@
   <sheetPr/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H51"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -1444,7 +1444,7 @@
     <col min="3" max="3" width="37.4642857142857" style="1" customWidth="1"/>
     <col min="4" max="4" width="54.1607142857143" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.8660714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7410714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3214285714286" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.5089285714286" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="1" customWidth="1"/>
   </cols>
@@ -1499,7 +1499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="36.75" spans="1:8">
+    <row r="3" ht="36" spans="1:8">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1523,17 +1523,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="53.75" spans="1:8">
-      <c r="A4" s="3">
+    <row r="4" ht="53" spans="1:8">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1547,7 +1547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="53.75" spans="1:8">
+    <row r="5" ht="53" spans="1:8">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1560,25 +1560,25 @@
       <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="53.75" spans="1:8">
-      <c r="A6" s="3">
+    <row r="6" ht="53" spans="1:8">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1587,15 +1587,15 @@
       <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="53.75" spans="1:8">
+    <row r="7" ht="53" spans="1:8">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1608,10 +1608,10 @@
       <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="4"/>
@@ -1620,16 +1620,16 @@
       </c>
     </row>
     <row r="8" ht="53" spans="1:8">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1639,11 +1639,11 @@
         <v>32</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" ht="53.75" spans="1:8">
+    <row r="9" ht="53" spans="1:8">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1663,21 +1663,21 @@
         <v>36</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="53.75" spans="1:8">
-      <c r="A10" s="3">
+    <row r="10" ht="53" spans="1:8">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -1687,11 +1687,11 @@
         <v>39</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" ht="36.75" spans="1:8">
+    <row r="11" ht="36" spans="1:8">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1704,25 +1704,25 @@
       <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="36.75" spans="1:8">
-      <c r="A12" s="3">
+    <row r="12" ht="36" spans="1:8">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1735,11 +1735,11 @@
         <v>44</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" ht="36.75" spans="1:8">
+    <row r="13" ht="36" spans="1:8">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="E13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="4"/>
@@ -1763,79 +1763,79 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" ht="36.75" spans="1:8">
-      <c r="A14" s="3">
+    <row r="14" ht="36" spans="1:8">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3" t="s">
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="36.75" spans="1:8">
+    <row r="15" ht="36" spans="1:8">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="5"/>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" ht="36.75" spans="1:8">
-      <c r="A16" s="3">
+    <row r="16" ht="36" spans="1:8">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
+      <c r="E16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" ht="36.75" spans="1:8">
+    <row r="17" ht="36" spans="1:8">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1848,28 +1848,28 @@
       <c r="D17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="36.75" spans="1:8">
-      <c r="A18" s="3">
+    <row r="18" ht="36" spans="1:8">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -1879,11 +1879,11 @@
         <v>58</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" ht="36.75" spans="1:8">
+    <row r="19" ht="36" spans="1:8">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1896,10 +1896,10 @@
       <c r="D19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="4"/>
@@ -1907,14 +1907,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" ht="36.75" spans="1:8">
-      <c r="A20" s="3">
+    <row r="20" ht="36" spans="1:8">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1927,11 +1927,11 @@
         <v>63</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" ht="53.75" spans="1:8">
+    <row r="21" ht="53" spans="1:8">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1947,25 +1947,25 @@
       <c r="E21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" ht="36.75" spans="1:8">
-      <c r="A22" s="3">
+    <row r="22" ht="36" spans="1:8">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -1975,11 +1975,11 @@
         <v>70</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" ht="36.75" spans="1:8">
+    <row r="23" ht="36" spans="1:8">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1992,42 +1992,42 @@
       <c r="D23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="36.75" spans="1:8">
-      <c r="A24" s="3">
+    <row r="24" ht="36" spans="1:8">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="36.75" spans="1:8">
+    <row r="25" ht="36" spans="1:8">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2040,42 +2040,42 @@
       <c r="D25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" ht="36" spans="1:8">
-      <c r="A26" s="3">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="53.75" spans="1:8">
+    <row r="27" ht="53" spans="1:8">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2085,7 +2085,7 @@
       <c r="C27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -2095,18 +2095,18 @@
         <v>81</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" ht="71.75" spans="1:8">
-      <c r="A28" s="3">
+    <row r="28" ht="71" spans="1:8">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -2119,11 +2119,11 @@
         <v>84</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="36.75" spans="1:8">
+    <row r="29" ht="36" spans="1:8">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2136,42 +2136,42 @@
       <c r="D29" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" ht="53" spans="1:8">
-      <c r="A30" s="3">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="5" t="s">
         <v>81</v>
       </c>
       <c r="G30" s="5"/>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" ht="36.75" spans="1:8">
+    <row r="31" ht="36" spans="1:8">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2184,10 +2184,10 @@
       <c r="D31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>91</v>
       </c>
       <c r="G31" s="4"/>
@@ -2195,38 +2195,38 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" ht="36.75" spans="1:8">
-      <c r="A32" s="3">
+    <row r="32" ht="36" spans="1:8">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="3" t="s">
+      <c r="E32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" ht="53.75" spans="1:8">
+    <row r="33" ht="53" spans="1:8">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -2238,22 +2238,22 @@
       <c r="F33" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="5"/>
+      <c r="G33" s="4"/>
       <c r="H33" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" ht="36.75" spans="1:8">
-      <c r="A34" s="3">
+    <row r="34" ht="36" spans="1:8">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>97</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -2262,12 +2262,12 @@
       <c r="F34" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4" t="s">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" ht="36.75" spans="1:8">
+    <row r="35" ht="36" spans="1:8">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2280,42 +2280,42 @@
       <c r="D35" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="E35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="4"/>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" ht="36" spans="1:8">
-      <c r="A36" s="3">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="E36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="5"/>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" ht="53.75" spans="1:8">
+    <row r="37" ht="53" spans="1:8">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2335,35 +2335,35 @@
         <v>105</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="38" ht="36" spans="1:8">
-      <c r="A38" s="3">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="E38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="5"/>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" ht="36.75" spans="1:8">
+    <row r="39" ht="36" spans="1:8">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2373,13 +2373,13 @@
       <c r="C39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G39" s="4"/>
@@ -2387,23 +2387,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" ht="36.75" spans="1:8">
-      <c r="A40" s="3">
+    <row r="40" ht="36" spans="1:8">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="3" t="s">
+      <c r="E40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="5"/>
@@ -2411,7 +2411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" ht="36.75" spans="1:8">
+    <row r="41" ht="36" spans="1:8">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2424,42 +2424,42 @@
       <c r="D41" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="E41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="4"/>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" ht="36.75" spans="1:8">
-      <c r="A42" s="3">
+    <row r="42" ht="36" spans="1:8">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>116</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="5"/>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" ht="36.75" spans="1:8">
+    <row r="43" ht="36" spans="1:8">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2472,42 +2472,42 @@
       <c r="D43" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="3" t="s">
+      <c r="E43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="4"/>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" ht="36.75" spans="1:8">
-      <c r="A44" s="3">
+    <row r="44" ht="36" spans="1:8">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="E44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="5"/>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" ht="36.75" spans="1:8">
+    <row r="45" ht="36" spans="1:8">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2517,13 +2517,13 @@
       <c r="C45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="4"/>
@@ -2531,23 +2531,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" ht="36.75" spans="1:8">
-      <c r="A46" s="3">
+    <row r="46" ht="36" spans="1:8">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="E46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="5"/>
@@ -2555,7 +2555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" ht="36.75" spans="1:8">
+    <row r="47" ht="36" spans="1:8">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2568,34 +2568,34 @@
       <c r="D47" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="E47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="4"/>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" ht="36.75" spans="1:8">
-      <c r="A48" s="3">
+    <row r="48" ht="36" spans="1:8">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="C48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="E48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="5"/>
@@ -2603,7 +2603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" ht="36.75" spans="1:8">
+    <row r="49" ht="36" spans="1:8">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -2616,34 +2616,34 @@
       <c r="D49" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="3" t="s">
+      <c r="E49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="4"/>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" ht="36.75" spans="1:8">
-      <c r="A50" s="3">
+    <row r="50" ht="36" spans="1:8">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="4" t="s">
+      <c r="C50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="E50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G50" s="5"/>
@@ -2664,10 +2664,10 @@
       <c r="D51" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="3" t="s">
+      <c r="E51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G51" s="4"/>
